--- a/Results.xlsx
+++ b/Results.xlsx
@@ -557,16 +557,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>63500</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>914400</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>863600</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -911,7 +911,7 @@
   <dimension ref="A1:M30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:J1048576"/>
+      <selection sqref="A1:M30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
